--- a/Inputs/VUMI_Global_Flex/info.xlsx
+++ b/Inputs/VUMI_Global_Flex/info.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">AbuDhabi/</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-01</t>
+    <t xml:space="preserve">2025-05-01</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
@@ -187,10 +187,10 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
